--- a/Textbook Companion/Chapter43/Practice Files/Makeuptimeline.xlsx
+++ b/Textbook Companion/Chapter43/Practice Files/Makeuptimeline.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\winston\Documents\Chapter43pivottables\Companion Content\Practice Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\Essential-Statistics-for-Data-Analysis-using-Excel\Textbook Companion\Chapter43\Practice Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="60" windowWidth="9090" windowHeight="6480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot Table" sheetId="3" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <definedName name="Name">data!$H$5:$H$1904</definedName>
     <definedName name="NativeTimeline_Date">#N/A</definedName>
     <definedName name="NativeTimeline_Date1">#N/A</definedName>
+    <definedName name="NativeTimeline_Date2">#N/A</definedName>
     <definedName name="Product">data!$J$5:$J$1904</definedName>
     <definedName name="Trans_Number">data!$G$5:$G$1904</definedName>
     <definedName name="Units">data!$K$5:$K$1904</definedName>
@@ -39,6 +40,7 @@
       <x15:timelineCacheRefs>
         <x15:timelineCacheRef r:id="rId5"/>
         <x15:timelineCacheRef r:id="rId6"/>
+        <x15:timelineCacheRef r:id="rId7"/>
       </x15:timelineCacheRefs>
     </ext>
   </extLst>
@@ -129,7 +131,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
@@ -312,34 +314,7 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
@@ -378,7 +353,13 @@
       <mc:Choice Requires="tsle">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Date"/>
+            <xdr:cNvPr id="2" name="Date">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -432,6 +413,83 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" Requires="tsle">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Date 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3213AB74-965A-4746-A2CA-AF19DDB0518A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
+              <tsle:timeslicer xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" name="Date 2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15156656" y="7715250"/>
+              <a:ext cx="4321970" cy="1440656"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>Timeline: Works in Excel or higher. Do not move or resize.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -446,7 +504,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:colOff>41910</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
@@ -454,7 +512,13 @@
       <mc:Choice Requires="tsle">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Date 1"/>
+            <xdr:cNvPr id="2" name="Date 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -512,7 +576,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="tsadmin" refreshedDate="41482.94606840278" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="1900">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="tsadmin" refreshedDate="41482.94606840278" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="1900" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="G4:L1904" sheet="data"/>
   </cacheSource>
@@ -15867,7 +15931,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H26:R33" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -15885,7 +15949,111 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="101">
+        <item x="42"/>
+        <item x="53"/>
+        <item x="97"/>
+        <item x="36"/>
+        <item x="59"/>
+        <item x="86"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="15"/>
+        <item x="74"/>
+        <item x="88"/>
+        <item x="83"/>
+        <item x="64"/>
+        <item x="38"/>
+        <item x="4"/>
+        <item x="43"/>
+        <item x="77"/>
+        <item x="87"/>
+        <item x="96"/>
+        <item x="45"/>
+        <item x="89"/>
+        <item x="80"/>
+        <item x="31"/>
+        <item x="19"/>
+        <item x="71"/>
+        <item x="81"/>
+        <item x="17"/>
+        <item x="22"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="90"/>
+        <item x="50"/>
+        <item x="13"/>
+        <item x="94"/>
+        <item x="49"/>
+        <item x="78"/>
+        <item x="54"/>
+        <item x="2"/>
+        <item x="33"/>
+        <item x="61"/>
+        <item x="55"/>
+        <item x="37"/>
+        <item x="92"/>
+        <item x="21"/>
+        <item x="69"/>
+        <item x="40"/>
+        <item x="98"/>
+        <item x="41"/>
+        <item x="51"/>
+        <item x="32"/>
+        <item x="95"/>
+        <item x="57"/>
+        <item x="39"/>
+        <item x="65"/>
+        <item x="12"/>
+        <item x="27"/>
+        <item x="24"/>
+        <item x="68"/>
+        <item x="85"/>
+        <item x="72"/>
+        <item x="47"/>
+        <item x="26"/>
+        <item x="5"/>
+        <item x="44"/>
+        <item x="60"/>
+        <item x="82"/>
+        <item x="56"/>
+        <item x="67"/>
+        <item x="20"/>
+        <item x="75"/>
+        <item x="34"/>
+        <item x="52"/>
+        <item x="70"/>
+        <item x="28"/>
+        <item x="99"/>
+        <item x="91"/>
+        <item x="16"/>
+        <item x="46"/>
+        <item x="3"/>
+        <item x="18"/>
+        <item x="62"/>
+        <item x="35"/>
+        <item x="8"/>
+        <item x="48"/>
+        <item x="73"/>
+        <item x="9"/>
+        <item x="63"/>
+        <item x="93"/>
+        <item x="29"/>
+        <item x="14"/>
+        <item x="58"/>
+        <item x="84"/>
+        <item x="25"/>
+        <item x="79"/>
+        <item x="76"/>
+        <item x="66"/>
+        <item x="23"/>
+        <item x="7"/>
+        <item x="30"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
         <item x="3"/>
@@ -15961,16 +16129,36 @@
     <dataField name="Sum of Dollars" fld="5" baseField="3" baseItem="1" numFmtId="165"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="2" type="dateBetween" evalOrder="-1" id="8" name="Date">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters and="1">
+            <customFilter operator="greaterThanOrEqual" val="37987"/>
+            <customFilter operator="lessThanOrEqual" val="38260"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
+          <x15:pivotFilter useWholeDay="1"/>
+        </ext>
+      </extLst>
+    </filter>
+  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -16168,7 +16356,7 @@
     <dataField name="Sum of Dollars" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="10">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
@@ -16181,32 +16369,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I4:K21" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="6">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-  </pivotFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -16404,7 +16575,7 @@
     <dataField name="Sum of Dollars" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="6">
+    <format dxfId="0">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
@@ -16413,26 +16584,35 @@
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="2" type="dateBetween" evalOrder="-1" id="26" name="Date">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters and="1">
-            <customFilter operator="greaterThanOrEqual" val="37987"/>
-            <customFilter operator="lessThanOrEqual" val="38533"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
-          <x15:pivotFilter useWholeDay="1"/>
-        </ext>
-      </extLst>
-    </filter>
-  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="PivotTable14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I4:K21" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -16514,6 +16694,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -16549,6 +16746,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -16721,7 +16935,7 @@
 </file>
 
 <file path=xl/timelineCaches/timelineCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<timelineCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" name="NativeTimeline_Date" sourceName="Date">
+<timelineCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="xr10" name="NativeTimeline_Date" xr10:uid="{00000000-0013-0000-FFFF-FFFF01000000}" sourceName="Date">
   <pivotTables>
     <pivotTable tabId="3" name="PivotTable10"/>
   </pivotTables>
@@ -16732,35 +16946,47 @@
 </file>
 
 <file path=xl/timelineCaches/timelineCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<timelineCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" name="NativeTimeline_Date1" sourceName="Date">
+<timelineCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="xr10" name="NativeTimeline_Date1" xr10:uid="{00000000-0013-0000-FFFF-FFFF02000000}" sourceName="Date">
   <pivotTables>
     <pivotTable tabId="4" name="PivotTable10"/>
   </pivotTables>
+  <state minimalRefreshVersion="6" lastRefreshVersion="6" pivotCacheId="1" filterType="unknown">
+    <bounds startDate="2004-01-01T00:00:00" endDate="2007-01-01T00:00:00"/>
+  </state>
+</timelineCacheDefinition>
+</file>
+
+<file path=xl/timelineCaches/timelineCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<timelineCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="xr10" name="NativeTimeline_Date2" xr10:uid="{8E9E7383-8565-49B8-945F-153C52B41511}" sourceName="Date">
+  <pivotTables>
+    <pivotTable tabId="3" name="PivotTable1"/>
+  </pivotTables>
   <state minimalRefreshVersion="6" lastRefreshVersion="6" pivotCacheId="1" filterType="dateBetween">
-    <selection startDate="2004-01-01T00:00:00" endDate="2005-06-30T00:00:00"/>
+    <selection startDate="2004-01-01T00:00:00" endDate="2004-09-30T00:00:00"/>
     <bounds startDate="2004-01-01T00:00:00" endDate="2007-01-01T00:00:00"/>
   </state>
 </timelineCacheDefinition>
 </file>
 
 <file path=xl/timelines/timeline1.xml><?xml version="1.0" encoding="utf-8"?>
-<timelines xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <timeline name="Date" cache="NativeTimeline_Date" caption="Date" level="1" selectionLevel="1" scrollPosition="2004-01-01T00:00:00"/>
+<timelines xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <timeline name="Date" xr10:uid="{00000000-0014-0000-FFFF-FFFF01000000}" cache="NativeTimeline_Date" caption="Date" level="1" selectionLevel="1" scrollPosition="2004-01-01T00:00:00"/>
+  <timeline name="Date 2" xr10:uid="{10317B02-02D7-4ED2-8E88-D999242F97E8}" cache="NativeTimeline_Date2" caption="Date" level="2" selectionLevel="1" scrollPosition="2004-01-01T00:00:00"/>
 </timelines>
 </file>
 
 <file path=xl/timelines/timeline2.xml><?xml version="1.0" encoding="utf-8"?>
-<timelines xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <timeline name="Date 1" cache="NativeTimeline_Date1" caption="Date" level="1" selectionLevel="1" scrollPosition="2004-01-01T00:00:00"/>
+<timelines xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <timeline name="Date 1" xr10:uid="{00000000-0014-0000-FFFF-FFFF02000000}" cache="NativeTimeline_Date1" caption="Date" level="1" selectionLevel="1" scrollPosition="2004-01-01T00:00:00"/>
 </timelines>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AC62" sqref="AC62"/>
+    <sheetView topLeftCell="H24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16771,10 +16997,10 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" customWidth="1"/>
-    <col min="10" max="17" width="11" customWidth="1"/>
-    <col min="18" max="18" width="12" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -17096,34 +17322,34 @@
         <v>11</v>
       </c>
       <c r="I28" s="9">
-        <v>5844.9487439548257</v>
+        <v>1462.4699524750404</v>
       </c>
       <c r="J28" s="9">
-        <v>6046.5342817912433</v>
+        <v>860.30787098513997</v>
       </c>
       <c r="K28" s="9">
-        <v>5982.8232912016865</v>
+        <v>1433.4904425996519</v>
       </c>
       <c r="L28" s="9">
-        <v>3389.6253141943339</v>
+        <v>607.0910609530672</v>
       </c>
       <c r="M28" s="9">
-        <v>5397.2736359804867</v>
+        <v>1753.743335595319</v>
       </c>
       <c r="N28" s="9">
-        <v>7587.3889798071586</v>
+        <v>1373.680131569462</v>
       </c>
       <c r="O28" s="9">
-        <v>6964.6210744672253</v>
+        <v>1973.3688778189044</v>
       </c>
       <c r="P28" s="9">
-        <v>7010.4405139342298</v>
+        <v>1398.1370195241857</v>
       </c>
       <c r="Q28" s="9">
-        <v>8270.1874774108983</v>
+        <v>1737.2802413377392</v>
       </c>
       <c r="R28" s="9">
-        <v>56493.843312742087</v>
+        <v>12599.568932858509</v>
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
@@ -17131,34 +17357,34 @@
         <v>9</v>
       </c>
       <c r="I29" s="9">
-        <v>4186.0586282395634</v>
+        <v>945.72101554955816</v>
       </c>
       <c r="J29" s="9">
-        <v>8276.8429819789326</v>
+        <v>2783.897266515381</v>
       </c>
       <c r="K29" s="9">
-        <v>6198.248632380697</v>
+        <v>1991.9242381824365</v>
       </c>
       <c r="L29" s="9">
-        <v>6834.7676079924058</v>
+        <v>2158.4787302919199</v>
       </c>
       <c r="M29" s="9">
-        <v>5290.9899348532936</v>
+        <v>759.40996285167955</v>
       </c>
       <c r="N29" s="9">
-        <v>5492.7975790327473</v>
+        <v>1167.234331296203</v>
       </c>
       <c r="O29" s="9">
-        <v>7256.2037260048064</v>
+        <v>1432.2033714829524</v>
       </c>
       <c r="P29" s="9">
-        <v>5747.9483385515523</v>
+        <v>927.53508620137029</v>
       </c>
       <c r="Q29" s="9">
-        <v>6451.6500570754861</v>
+        <v>1526.8240157635257</v>
       </c>
       <c r="R29" s="9">
-        <v>55735.507486109491</v>
+        <v>13693.228018135027</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
@@ -17166,34 +17392,34 @@
         <v>10</v>
       </c>
       <c r="I30" s="9">
-        <v>6053.6845647560549</v>
+        <v>1595.5235827028705</v>
       </c>
       <c r="J30" s="9">
-        <v>5683.9104455847391</v>
+        <v>1797.4852421181415</v>
       </c>
       <c r="K30" s="9">
-        <v>5199.94920120388</v>
+        <v>1240.7860814504802</v>
       </c>
       <c r="L30" s="9">
-        <v>5573.3237251253349</v>
+        <v>1914.8508213884922</v>
       </c>
       <c r="M30" s="9">
-        <v>5297.9798099805539</v>
+        <v>1658.0714785938685</v>
       </c>
       <c r="N30" s="9">
-        <v>5270.2503134534709</v>
+        <v>1877.1775929523833</v>
       </c>
       <c r="O30" s="9">
-        <v>5603.1193784274219</v>
+        <v>1131.553684723975</v>
       </c>
       <c r="P30" s="9">
-        <v>5461.6147895895683</v>
+        <v>1273.4126472226003</v>
       </c>
       <c r="Q30" s="9">
-        <v>5690.811172904092</v>
+        <v>1019.7612518437541</v>
       </c>
       <c r="R30" s="9">
-        <v>49834.643401025118</v>
+        <v>13508.622382996566</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
@@ -17201,34 +17427,34 @@
         <v>13</v>
       </c>
       <c r="I31" s="9">
-        <v>3245.4429784805557</v>
+        <v>373.37595217344972</v>
       </c>
       <c r="J31" s="9">
-        <v>3968.6054956178609</v>
+        <v>1301.0780264269349</v>
       </c>
       <c r="K31" s="9">
-        <v>3148.8406504594477</v>
+        <v>537.62242308784096</v>
       </c>
       <c r="L31" s="9">
-        <v>2346.413777222308</v>
+        <v>663.46199393744905</v>
       </c>
       <c r="M31" s="9">
-        <v>2401.6683433629355</v>
+        <v>699.80036010944366</v>
       </c>
       <c r="N31" s="9">
-        <v>2189.1375682038929</v>
+        <v>227.4564792557687</v>
       </c>
       <c r="O31" s="9">
-        <v>3177.8713252359439</v>
+        <v>1336.0744230432858</v>
       </c>
       <c r="P31" s="9">
-        <v>3953.3001319646378</v>
+        <v>1202.1632069334005</v>
       </c>
       <c r="Q31" s="9">
-        <v>2448.707163014371</v>
+        <v>1154.0491071957817</v>
       </c>
       <c r="R31" s="9">
-        <v>26879.987433561953</v>
+        <v>7495.0819721633561</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
@@ -17236,34 +17462,34 @@
         <v>12</v>
       </c>
       <c r="I32" s="9">
-        <v>6617.1003487015641</v>
+        <v>2999.5006708781611</v>
       </c>
       <c r="J32" s="9">
-        <v>4827.2539959100477</v>
+        <v>1158.5539767184978</v>
       </c>
       <c r="K32" s="9">
-        <v>7060.7113972131237</v>
+        <v>1309.8439211053635</v>
       </c>
       <c r="L32" s="9">
-        <v>6746.5253677508181</v>
+        <v>2056.9106460159164</v>
       </c>
       <c r="M32" s="9">
-        <v>5461.6469967318171</v>
+        <v>1401.093983478441</v>
       </c>
       <c r="N32" s="9">
-        <v>4719.299731466187</v>
+        <v>880.61940455306558</v>
       </c>
       <c r="O32" s="9">
-        <v>5703.3466703488166</v>
+        <v>1179.2840711990409</v>
       </c>
       <c r="P32" s="9">
-        <v>6877.2310013027191</v>
+        <v>1938.313340483387</v>
       </c>
       <c r="Q32" s="9">
-        <v>3879.9499441823205</v>
+        <v>598.50867889460517</v>
       </c>
       <c r="R32" s="9">
-        <v>51893.065453607407</v>
+        <v>13522.62869332648</v>
       </c>
     </row>
     <row r="33" spans="8:18" x14ac:dyDescent="0.2">
@@ -17271,34 +17497,34 @@
         <v>22</v>
       </c>
       <c r="I33" s="9">
-        <v>25947.235264132563</v>
+        <v>7376.5911737790802</v>
       </c>
       <c r="J33" s="9">
-        <v>28803.147200882824</v>
+        <v>7901.3223827640959</v>
       </c>
       <c r="K33" s="9">
-        <v>27590.573172458837</v>
+        <v>6513.6671064257735</v>
       </c>
       <c r="L33" s="9">
-        <v>24890.655792285201</v>
+        <v>7400.7932525868446</v>
       </c>
       <c r="M33" s="9">
-        <v>23849.558720909088</v>
+        <v>6272.1191206287513</v>
       </c>
       <c r="N33" s="9">
-        <v>25258.874171963456</v>
+        <v>5526.1679396268819</v>
       </c>
       <c r="O33" s="9">
-        <v>28705.162174484212</v>
+        <v>7052.4844282681579</v>
       </c>
       <c r="P33" s="9">
-        <v>29050.534775342712</v>
+        <v>6739.5613003649441</v>
       </c>
       <c r="Q33" s="9">
-        <v>26741.305814587169</v>
+        <v>6036.4232950354062</v>
       </c>
       <c r="R33" s="9">
-        <v>240837.04708704608</v>
+        <v>60819.129999479934</v>
       </c>
     </row>
   </sheetData>
@@ -17315,18 +17541,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -17370,22 +17597,22 @@
         <v>6</v>
       </c>
       <c r="B5" s="9">
-        <v>2259.9720620412363</v>
+        <v>5844.9487439548257</v>
       </c>
       <c r="C5" s="9">
-        <v>2064.6228183433718</v>
+        <v>4186.0586282395634</v>
       </c>
       <c r="D5" s="9">
-        <v>3387.8400767099206</v>
+        <v>6053.6845647560549</v>
       </c>
       <c r="E5" s="9">
-        <v>1191.9163052531062</v>
+        <v>3245.4429784805557</v>
       </c>
       <c r="F5" s="9">
-        <v>4773.7194556297063</v>
+        <v>6617.1003487015641</v>
       </c>
       <c r="G5" s="9">
-        <v>13678.070717977342</v>
+        <v>25947.235264132563</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="15"/>
@@ -17396,22 +17623,22 @@
         <v>8</v>
       </c>
       <c r="B6" s="9">
-        <v>2714.9056050595264</v>
+        <v>6046.5342817912433</v>
       </c>
       <c r="C6" s="9">
-        <v>4195.0876765198755</v>
+        <v>8276.8429819789326</v>
       </c>
       <c r="D6" s="9">
-        <v>2862.8433121208423</v>
+        <v>5683.9104455847391</v>
       </c>
       <c r="E6" s="9">
-        <v>2223.6565115208264</v>
+        <v>3968.6054956178609</v>
       </c>
       <c r="F6" s="9">
-        <v>2591.1185224929673</v>
+        <v>4827.2539959100477</v>
       </c>
       <c r="G6" s="9">
-        <v>14587.611627714037</v>
+        <v>28803.147200882824</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="15"/>
@@ -17422,22 +17649,22 @@
         <v>7</v>
       </c>
       <c r="B7" s="9">
-        <v>3310.7135521453829</v>
+        <v>5982.8232912016865</v>
       </c>
       <c r="C7" s="9">
-        <v>3313.9051141186542</v>
+        <v>6198.248632380697</v>
       </c>
       <c r="D7" s="9">
-        <v>2076.4596462047289</v>
+        <v>5199.94920120388</v>
       </c>
       <c r="E7" s="9">
-        <v>1676.025480263183</v>
+        <v>3148.8406504594477</v>
       </c>
       <c r="F7" s="9">
-        <v>3026.3617025822628</v>
+        <v>7060.7113972131237</v>
       </c>
       <c r="G7" s="9">
-        <v>13403.465495314211</v>
+        <v>27590.573172458837</v>
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="15"/>
@@ -17448,22 +17675,22 @@
         <v>2</v>
       </c>
       <c r="B8" s="9">
-        <v>2122.7564140417157</v>
+        <v>3389.6253141943339</v>
       </c>
       <c r="C8" s="9">
-        <v>4064.69674382941</v>
+        <v>6834.7676079924058</v>
       </c>
       <c r="D8" s="9">
-        <v>3190.3202659161557</v>
+        <v>5573.3237251253349</v>
       </c>
       <c r="E8" s="9">
-        <v>1454.8678291743015</v>
+        <v>2346.413777222308</v>
       </c>
       <c r="F8" s="9">
-        <v>3163.4441838823095</v>
+        <v>6746.5253677508181</v>
       </c>
       <c r="G8" s="9">
-        <v>13996.085436843892</v>
+        <v>24890.655792285201</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="15"/>
@@ -17474,22 +17701,22 @@
         <v>1</v>
       </c>
       <c r="B9" s="9">
-        <v>3890.1382287210899</v>
+        <v>5397.2736359804867</v>
       </c>
       <c r="C9" s="9">
-        <v>2047.0715163689408</v>
+        <v>5290.9899348532936</v>
       </c>
       <c r="D9" s="9">
-        <v>2844.1648717337853</v>
+        <v>5297.9798099805539</v>
       </c>
       <c r="E9" s="9">
-        <v>1531.3371060339814</v>
+        <v>2401.6683433629355</v>
       </c>
       <c r="F9" s="9">
-        <v>2708.8592321461947</v>
+        <v>5461.6469967318171</v>
       </c>
       <c r="G9" s="9">
-        <v>13021.570955003992</v>
+        <v>23849.558720909088</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
@@ -17500,22 +17727,22 @@
         <v>5</v>
       </c>
       <c r="B10" s="9">
-        <v>4086.7474009144098</v>
+        <v>7587.3889798071586</v>
       </c>
       <c r="C10" s="9">
-        <v>2754.3589042590102</v>
+        <v>5492.7975790327473</v>
       </c>
       <c r="D10" s="9">
-        <v>2808.2242252050701</v>
+        <v>5270.2503134534709</v>
       </c>
       <c r="E10" s="9">
-        <v>1180.9573730114014</v>
+        <v>2189.1375682038929</v>
       </c>
       <c r="F10" s="9">
-        <v>2462.8853083143777</v>
+        <v>4719.299731466187</v>
       </c>
       <c r="G10" s="9">
-        <v>13293.17321170427</v>
+        <v>25258.874171963456</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
@@ -17526,22 +17753,22 @@
         <v>3</v>
       </c>
       <c r="B11" s="9">
-        <v>4195.3956496629107</v>
+        <v>6964.6210744672253</v>
       </c>
       <c r="C11" s="9">
-        <v>3622.6008834034619</v>
+        <v>7256.2037260048064</v>
       </c>
       <c r="D11" s="9">
-        <v>2857.4816403423893</v>
+        <v>5603.1193784274219</v>
       </c>
       <c r="E11" s="9">
-        <v>2133.183894291582</v>
+        <v>3177.8713252359439</v>
       </c>
       <c r="F11" s="9">
-        <v>2309.1463626541577</v>
+        <v>5703.3466703488166</v>
       </c>
       <c r="G11" s="9">
-        <v>15117.808430354502</v>
+        <v>28705.162174484212</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
@@ -17552,22 +17779,22 @@
         <v>0</v>
       </c>
       <c r="B12" s="9">
-        <v>3364.8860930770916</v>
+        <v>7010.4405139342298</v>
       </c>
       <c r="C12" s="9">
-        <v>2830.3954633346398</v>
+        <v>5747.9483385515523</v>
       </c>
       <c r="D12" s="9">
-        <v>1875.4744229673584</v>
+        <v>5461.6147895895683</v>
       </c>
       <c r="E12" s="9">
-        <v>1762.8815450232962</v>
+        <v>3953.3001319646378</v>
       </c>
       <c r="F12" s="9">
-        <v>3866.2713399844492</v>
+        <v>6877.2310013027191</v>
       </c>
       <c r="G12" s="9">
-        <v>13699.908864386834</v>
+        <v>29050.534775342712</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="15"/>
@@ -17578,22 +17805,22 @@
         <v>4</v>
       </c>
       <c r="B13" s="9">
-        <v>3188.375787704178</v>
+        <v>8270.1874774108983</v>
       </c>
       <c r="C13" s="9">
-        <v>2695.031254818286</v>
+        <v>6451.6500570754861</v>
       </c>
       <c r="D13" s="9">
-        <v>3040.7766512925987</v>
+        <v>5690.811172904092</v>
       </c>
       <c r="E13" s="9">
-        <v>1659.8648499853923</v>
+        <v>2448.707163014371</v>
       </c>
       <c r="F13" s="9">
-        <v>1828.4799539688136</v>
+        <v>3879.9499441823205</v>
       </c>
       <c r="G13" s="9">
-        <v>12412.528497769268</v>
+        <v>26741.305814587169</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="15"/>
@@ -17604,22 +17831,22 @@
         <v>22</v>
       </c>
       <c r="B14" s="8">
-        <v>29133.890793367544</v>
+        <v>56493.843312742087</v>
       </c>
       <c r="C14" s="8">
-        <v>27587.770374995649</v>
+        <v>55735.507486109491</v>
       </c>
       <c r="D14" s="8">
-        <v>24943.585112492852</v>
+        <v>49834.643401025118</v>
       </c>
       <c r="E14" s="8">
-        <v>14814.690894557069</v>
+        <v>26879.987433561953</v>
       </c>
       <c r="F14" s="8">
-        <v>26730.286061655243</v>
+        <v>51893.065453607407</v>
       </c>
       <c r="G14" s="8">
-        <v>123210.22323706833</v>
+        <v>240837.04708704606</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="15"/>
@@ -17674,7 +17901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -55844,6 +56071,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Used_x0020_in_x0020_Chapter xmlns="d1607db4-bd3f-4f82-a312-bf7e283d0a6b">true</Used_x0020_in_x0020_Chapter>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF8E4BBD310ADB419B3C5F1ACE4D113D" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="63e1bd94a874076348984a0131457edc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d1607db4-bd3f-4f82-a312-bf7e283d0a6b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c9989741aedae2f07a76d9f40ef2a18" ns2:_="">
     <xsd:import namespace="d1607db4-bd3f-4f82-a312-bf7e283d0a6b"/>
@@ -55903,14 +56138,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Used_x0020_in_x0020_Chapter xmlns="d1607db4-bd3f-4f82-a312-bf7e283d0a6b">true</Used_x0020_in_x0020_Chapter>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41386B4E-0922-4FAB-9BA8-F4F0337B8A7F}">
   <ds:schemaRefs>
@@ -55920,6 +56147,21 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D618B6D0-FBA7-4011-8525-B19CD297CDF7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d1607db4-bd3f-4f82-a312-bf7e283d0a6b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C92BE61B-EAAF-4AE4-97E5-15E5A9513D42}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -55934,19 +56176,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D618B6D0-FBA7-4011-8525-B19CD297CDF7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d1607db4-bd3f-4f82-a312-bf7e283d0a6b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>